--- a/public/OvertimeData/template-spkl-rev.xlsx
+++ b/public/OvertimeData/template-spkl-rev.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA42D21-6EAB-4D3D-8A43-4648D407D5C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3362E144-9A18-4F96-918F-768B040A5AED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-168" yWindow="108" windowWidth="12312" windowHeight="11964" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Worksheet (2)" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="43">
   <si>
     <t>No</t>
   </si>
@@ -54,25 +55,115 @@
     <t>Masuk</t>
   </si>
   <si>
-    <t>03122024</t>
-  </si>
-  <si>
-    <t>04122024</t>
-  </si>
-  <si>
-    <t>05122024</t>
-  </si>
-  <si>
-    <t>06122024</t>
-  </si>
-  <si>
-    <t>09122024</t>
+    <t>EN-4-025</t>
+  </si>
+  <si>
+    <t>EN-4-046</t>
+  </si>
+  <si>
+    <t>EN-4-047</t>
+  </si>
+  <si>
+    <t>EN-4-088</t>
+  </si>
+  <si>
+    <t>Libur Off</t>
+  </si>
+  <si>
+    <t>EN-4-021</t>
+  </si>
+  <si>
+    <t>EN-4-095</t>
+  </si>
+  <si>
+    <t>EN-4-077</t>
+  </si>
+  <si>
+    <t>EN-4-038</t>
+  </si>
+  <si>
+    <t>EN-4-100</t>
+  </si>
+  <si>
+    <t>EN-4-063</t>
+  </si>
+  <si>
+    <t>EN-4-101</t>
+  </si>
+  <si>
+    <t>EN-4-036</t>
+  </si>
+  <si>
+    <t>EN-4-102</t>
+  </si>
+  <si>
+    <t>EN-4-097</t>
+  </si>
+  <si>
+    <t>EN-4-114</t>
+  </si>
+  <si>
+    <t>EN-4-103</t>
+  </si>
+  <si>
+    <t>EN-4-062</t>
+  </si>
+  <si>
+    <t>EN-4-070</t>
+  </si>
+  <si>
+    <t>EN-4-071</t>
+  </si>
+  <si>
+    <t>EN-4-044</t>
+  </si>
+  <si>
+    <t>EN-4-012</t>
+  </si>
+  <si>
+    <t>EN-4-043</t>
+  </si>
+  <si>
+    <t>EN-4-104</t>
+  </si>
+  <si>
+    <t>EN-4-107</t>
+  </si>
+  <si>
+    <t>EN-4-109</t>
+  </si>
+  <si>
+    <t>EN-4-112</t>
+  </si>
+  <si>
+    <t>EN-4-110</t>
+  </si>
+  <si>
+    <t>00006</t>
+  </si>
+  <si>
+    <t>EK-PR-386</t>
+  </si>
+  <si>
+    <t>EK-PR-387</t>
+  </si>
+  <si>
+    <t>Piket</t>
+  </si>
+  <si>
+    <t>00002</t>
+  </si>
+  <si>
+    <t>00041</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -169,7 +260,7 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -433,30 +524,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="134" zoomScaleNormal="134" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="134" zoomScaleNormal="134" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" customWidth="1"/>
+    <col min="5" max="5" width="23.77734375" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" customWidth="1"/>
-    <col min="12" max="12" width="24.140625" customWidth="1"/>
-    <col min="17" max="17" width="9.7109375" customWidth="1"/>
-    <col min="18" max="18" width="13.28515625" customWidth="1"/>
-    <col min="19" max="19" width="10.42578125" customWidth="1"/>
-    <col min="20" max="20" width="11.42578125" customWidth="1"/>
-    <col min="21" max="21" width="15.140625" customWidth="1"/>
+    <col min="10" max="10" width="13.77734375" customWidth="1"/>
+    <col min="12" max="12" width="24.109375" customWidth="1"/>
+    <col min="17" max="17" width="9.6640625" customWidth="1"/>
+    <col min="18" max="18" width="13.33203125" customWidth="1"/>
+    <col min="19" max="19" width="10.44140625" customWidth="1"/>
+    <col min="20" max="20" width="11.44140625" customWidth="1"/>
+    <col min="21" max="21" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.5" customHeight="1">
@@ -486,11 +577,11 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
-        <v>20005</v>
-      </c>
-      <c r="C2" s="5">
-        <v>22112024</v>
+      <c r="B2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="6">
+        <v>45617</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>7</v>
@@ -499,7 +590,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G2" s="5"/>
     </row>
@@ -507,11 +598,11 @@
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="4">
-        <v>20005</v>
-      </c>
-      <c r="C3" s="5">
-        <v>23112024</v>
+      <c r="B3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="6">
+        <v>45618</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>7</v>
@@ -520,7 +611,7 @@
         <v>8</v>
       </c>
       <c r="F3" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G3" s="5"/>
     </row>
@@ -528,11 +619,11 @@
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="4">
-        <v>20005</v>
-      </c>
-      <c r="C4" s="5">
-        <v>24112024</v>
+      <c r="B4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="6">
+        <v>45621</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>7</v>
@@ -541,7 +632,7 @@
         <v>8</v>
       </c>
       <c r="F4" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4" s="5"/>
     </row>
@@ -549,11 +640,11 @@
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="4">
-        <v>20005</v>
-      </c>
-      <c r="C5" s="5">
-        <v>27112024</v>
+      <c r="B5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="6">
+        <v>45622</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>7</v>
@@ -562,7 +653,7 @@
         <v>8</v>
       </c>
       <c r="F5" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G5" s="5"/>
     </row>
@@ -570,11 +661,11 @@
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="4">
-        <v>20005</v>
-      </c>
-      <c r="C6" s="5">
-        <v>28112024</v>
+      <c r="B6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="6">
+        <v>45625</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>7</v>
@@ -583,7 +674,7 @@
         <v>8</v>
       </c>
       <c r="F6" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G6" s="5"/>
     </row>
@@ -591,11 +682,11 @@
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="4">
-        <v>20005</v>
-      </c>
-      <c r="C7" s="5">
-        <v>29112024</v>
+      <c r="B7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="6">
+        <v>45629</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>7</v>
@@ -604,7 +695,7 @@
         <v>8</v>
       </c>
       <c r="F7" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G7" s="5"/>
     </row>
@@ -612,11 +703,11 @@
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="4">
-        <v>20005</v>
-      </c>
-      <c r="C8" s="5">
-        <v>30112024</v>
+      <c r="B8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="6">
+        <v>45630</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>7</v>
@@ -625,7 +716,7 @@
         <v>8</v>
       </c>
       <c r="F8" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G8" s="5"/>
     </row>
@@ -633,11 +724,11 @@
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="4">
-        <v>20005</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>9</v>
+      <c r="B9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="6">
+        <v>45631</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>7</v>
@@ -646,19 +737,19 @@
         <v>8</v>
       </c>
       <c r="F9" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="3">
-        <v>8</v>
-      </c>
-      <c r="B10" s="4">
-        <v>20005</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="6">
+        <v>45635</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>7</v>
@@ -667,19 +758,19 @@
         <v>8</v>
       </c>
       <c r="F10" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="3">
-        <v>8</v>
-      </c>
-      <c r="B11" s="4">
-        <v>20005</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="6">
+        <v>45637</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>7</v>
@@ -688,19 +779,19 @@
         <v>8</v>
       </c>
       <c r="F11" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="3">
-        <v>8</v>
-      </c>
-      <c r="B12" s="4">
-        <v>20005</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="6">
+        <v>45641</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>7</v>
@@ -709,19 +800,19 @@
         <v>8</v>
       </c>
       <c r="F12" s="5">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="3">
-        <v>8</v>
-      </c>
-      <c r="B13" s="4">
-        <v>20005</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="6">
+        <v>45642</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>7</v>
@@ -730,19 +821,19 @@
         <v>8</v>
       </c>
       <c r="F13" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="3">
-        <v>8</v>
-      </c>
-      <c r="B14" s="4">
-        <v>20005</v>
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="C14" s="6">
-        <v>10122024</v>
+        <v>45643</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>7</v>
@@ -751,19 +842,19 @@
         <v>8</v>
       </c>
       <c r="F14" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="3">
-        <v>8</v>
-      </c>
-      <c r="B15" s="4">
-        <v>20005</v>
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="C15" s="6">
-        <v>11122024</v>
+        <v>45644</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>7</v>
@@ -772,19 +863,19 @@
         <v>8</v>
       </c>
       <c r="F15" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="3">
-        <v>8</v>
-      </c>
-      <c r="B16" s="4">
-        <v>20005</v>
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="C16" s="6">
-        <v>12122024</v>
+        <v>45617</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>7</v>
@@ -793,19 +884,19 @@
         <v>8</v>
       </c>
       <c r="F16" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="3">
-        <v>8</v>
-      </c>
-      <c r="B17" s="4">
-        <v>20005</v>
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="C17" s="6">
-        <v>15122024</v>
+        <v>45618</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>7</v>
@@ -814,19 +905,19 @@
         <v>8</v>
       </c>
       <c r="F17" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G17" s="5"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="3">
-        <v>8</v>
-      </c>
-      <c r="B18" s="4">
-        <v>20005</v>
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="C18" s="6">
-        <v>16122024</v>
+        <v>45621</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>7</v>
@@ -841,13 +932,469 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="3">
-        <v>8</v>
-      </c>
-      <c r="B19" s="4">
-        <v>20005</v>
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="C19" s="6">
-        <v>17122024</v>
+        <v>45635</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="5">
+        <v>1</v>
+      </c>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="6">
+        <v>45639</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="5">
+        <v>1</v>
+      </c>
+      <c r="G20" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4860D797-BBDE-41C4-8537-E84CC484540B}">
+  <dimension ref="A1:G143"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="134" zoomScaleNormal="134" workbookViewId="0">
+      <selection activeCell="E153" sqref="E153"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="5.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" customWidth="1"/>
+    <col min="5" max="5" width="23.77734375" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="10" max="10" width="13.77734375" customWidth="1"/>
+    <col min="12" max="12" width="24.109375" customWidth="1"/>
+    <col min="17" max="17" width="9.6640625" customWidth="1"/>
+    <col min="18" max="18" width="13.33203125" customWidth="1"/>
+    <col min="19" max="19" width="10.44140625" customWidth="1"/>
+    <col min="20" max="20" width="11.44140625" customWidth="1"/>
+    <col min="21" max="21" width="15.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="22.5" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="6">
+        <v>45617</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="5">
+        <v>5</v>
+      </c>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="6">
+        <v>45618</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="5">
+        <v>3</v>
+      </c>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="6">
+        <v>45619</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="5">
+        <v>3</v>
+      </c>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="6">
+        <v>45620</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="5">
+        <v>20</v>
+      </c>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="6">
+        <v>45629</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="5">
+        <v>4</v>
+      </c>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="6">
+        <v>45633</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="5">
+        <v>16</v>
+      </c>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="6">
+        <v>45637</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="5">
+        <v>5</v>
+      </c>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="6">
+        <v>45640</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="5">
+        <v>22</v>
+      </c>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="6">
+        <v>45640</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="5">
+        <v>16</v>
+      </c>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="6">
+        <v>45641</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="5">
+        <v>16</v>
+      </c>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="6">
+        <v>45643</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="5">
+        <v>4</v>
+      </c>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="6">
+        <v>45617</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="6">
+        <v>45620</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="5">
+        <v>20</v>
+      </c>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="6">
+        <v>45624</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="5">
+        <v>4</v>
+      </c>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="6">
+        <v>45629</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="5">
+        <v>2</v>
+      </c>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="6">
+        <v>45640</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="5">
+        <v>22</v>
+      </c>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="6">
+        <v>45617</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="5">
+        <v>2</v>
+      </c>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="6">
+        <v>45618</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>7</v>
@@ -859,6 +1406,2610 @@
         <v>3</v>
       </c>
       <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="6">
+        <v>45624</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="5">
+        <v>10</v>
+      </c>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="6">
+        <v>45625</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="5">
+        <v>2</v>
+      </c>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="6">
+        <v>45629</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="5">
+        <v>4</v>
+      </c>
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="6">
+        <v>45637</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="5">
+        <v>5</v>
+      </c>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="6">
+        <v>45640</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="5">
+        <v>10</v>
+      </c>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="6">
+        <v>45641</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="5">
+        <v>9</v>
+      </c>
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="6">
+        <v>45643</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="5">
+        <v>4</v>
+      </c>
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="6">
+        <v>45617</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="5">
+        <v>3</v>
+      </c>
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="6">
+        <v>45637</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="5">
+        <v>5</v>
+      </c>
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="3">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="6">
+        <v>45617</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="G29" s="5"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="3">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="6">
+        <v>45618</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="5">
+        <v>3</v>
+      </c>
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="3">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="6">
+        <v>45621</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="5">
+        <v>1</v>
+      </c>
+      <c r="G31" s="5"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="3">
+        <v>31</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="6">
+        <v>45617</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="G32" s="5"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="3">
+        <v>32</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="6">
+        <v>45621</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="5">
+        <v>1</v>
+      </c>
+      <c r="G33" s="5"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="3">
+        <v>33</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="6">
+        <v>45617</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" s="5">
+        <v>6</v>
+      </c>
+      <c r="G34" s="5"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="3">
+        <v>34</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="6">
+        <v>45617</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" s="5">
+        <v>1</v>
+      </c>
+      <c r="G35" s="5"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="3">
+        <v>35</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="6">
+        <v>45629</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="G36" s="5"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="3">
+        <v>36</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" s="6">
+        <v>45630</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" s="5">
+        <v>1</v>
+      </c>
+      <c r="G37" s="5"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="3">
+        <v>37</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" s="6">
+        <v>45638</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" s="5">
+        <v>1</v>
+      </c>
+      <c r="G38" s="5"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="3">
+        <v>38</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" s="6">
+        <v>45639</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" s="5">
+        <v>3</v>
+      </c>
+      <c r="G39" s="5"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="3">
+        <v>39</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" s="6">
+        <v>45646</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" s="5">
+        <v>2</v>
+      </c>
+      <c r="G40" s="5"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="3">
+        <v>40</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" s="6">
+        <v>45617</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" s="5">
+        <v>1</v>
+      </c>
+      <c r="G41" s="5"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="3">
+        <v>41</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42" s="6">
+        <v>45618</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="5">
+        <v>1</v>
+      </c>
+      <c r="G42" s="5"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="3">
+        <v>42</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" s="6">
+        <v>45645</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" s="5">
+        <v>1</v>
+      </c>
+      <c r="G43" s="5"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="3">
+        <v>43</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C44" s="6">
+        <v>45617</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" s="5">
+        <v>1</v>
+      </c>
+      <c r="G44" s="5"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="3">
+        <v>44</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C45" s="6">
+        <v>45622</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" s="5">
+        <v>1</v>
+      </c>
+      <c r="G45" s="5"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="3">
+        <v>45</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C46" s="6">
+        <v>45646</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" s="5">
+        <v>1</v>
+      </c>
+      <c r="G46" s="5"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="3">
+        <v>46</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47" s="6">
+        <v>45624</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="5">
+        <v>1</v>
+      </c>
+      <c r="G47" s="5"/>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="3">
+        <v>47</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C48" s="6">
+        <v>45630</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" s="5">
+        <v>1</v>
+      </c>
+      <c r="G48" s="5"/>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="3">
+        <v>48</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C49" s="6">
+        <v>45636</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="G49" s="5"/>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="3">
+        <v>49</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C50" s="6">
+        <v>45639</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" s="5">
+        <v>3</v>
+      </c>
+      <c r="G50" s="5"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="3">
+        <v>50</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C51" s="6">
+        <v>45630</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51" s="5">
+        <v>2</v>
+      </c>
+      <c r="G51" s="5"/>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="3">
+        <v>51</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C52" s="6">
+        <v>45631</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" s="5">
+        <v>1</v>
+      </c>
+      <c r="G52" s="5"/>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="3">
+        <v>52</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C53" s="6">
+        <v>45636</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F53" s="5">
+        <v>1</v>
+      </c>
+      <c r="G53" s="5"/>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="3">
+        <v>53</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C54" s="6">
+        <v>45638</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54" s="5">
+        <v>1</v>
+      </c>
+      <c r="G54" s="5"/>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="3">
+        <v>54</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C55" s="6">
+        <v>45642</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F55" s="5">
+        <v>1</v>
+      </c>
+      <c r="G55" s="5"/>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="3">
+        <v>55</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C56" s="6">
+        <v>45621</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F56" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="G56" s="5"/>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="3">
+        <v>56</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C57" s="6">
+        <v>45624</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="G57" s="5"/>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="3">
+        <v>57</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C58" s="6">
+        <v>45629</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="5">
+        <v>1</v>
+      </c>
+      <c r="G58" s="5"/>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="3">
+        <v>58</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C59" s="6">
+        <v>45630</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F59" s="5">
+        <v>2</v>
+      </c>
+      <c r="G59" s="5"/>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="3">
+        <v>59</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C60" s="6">
+        <v>45631</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F60" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="G60" s="5"/>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="3">
+        <v>60</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C61" s="6">
+        <v>45636</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F61" s="5">
+        <v>1</v>
+      </c>
+      <c r="G61" s="5"/>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="3">
+        <v>61</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C62" s="6">
+        <v>45637</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" s="5">
+        <v>1</v>
+      </c>
+      <c r="G62" s="5"/>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="3">
+        <v>62</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C63" s="6">
+        <v>45638</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F63" s="5">
+        <v>2</v>
+      </c>
+      <c r="G63" s="5"/>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="3">
+        <v>63</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C64" s="6">
+        <v>45642</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F64" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="G64" s="5"/>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="3">
+        <v>64</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C65" s="6">
+        <v>45617</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F65" s="5">
+        <v>1</v>
+      </c>
+      <c r="G65" s="5"/>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="3">
+        <v>65</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C66" s="6">
+        <v>45622</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F66" s="5">
+        <v>1</v>
+      </c>
+      <c r="G66" s="5"/>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="3">
+        <v>66</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C67" s="6">
+        <v>45646</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F67" s="5">
+        <v>1</v>
+      </c>
+      <c r="G67" s="5"/>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="3">
+        <v>67</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C68" s="6">
+        <v>45621</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F68" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="G68" s="5"/>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="3">
+        <v>68</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C69" s="6">
+        <v>45624</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F69" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="G69" s="5"/>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="3">
+        <v>69</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C70" s="6">
+        <v>45629</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F70" s="5">
+        <v>1</v>
+      </c>
+      <c r="G70" s="5"/>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="3">
+        <v>70</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C71" s="6">
+        <v>45630</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F71" s="5">
+        <v>2</v>
+      </c>
+      <c r="G71" s="5"/>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="3">
+        <v>71</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C72" s="6">
+        <v>45636</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F72" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="G72" s="5"/>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="3">
+        <v>72</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C73" s="6">
+        <v>45637</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F73" s="5">
+        <v>1</v>
+      </c>
+      <c r="G73" s="5"/>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="3">
+        <v>73</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C74" s="6">
+        <v>45639</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F74" s="5">
+        <v>3</v>
+      </c>
+      <c r="G74" s="5"/>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="3">
+        <v>74</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C75" s="6">
+        <v>45642</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F75" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="G75" s="5"/>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="3">
+        <v>75</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C76" s="6">
+        <v>45617</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F76" s="5">
+        <v>1</v>
+      </c>
+      <c r="G76" s="5"/>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="3">
+        <v>76</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C77" s="6">
+        <v>45624</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F77" s="5">
+        <v>2</v>
+      </c>
+      <c r="G77" s="5"/>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="3">
+        <v>77</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C78" s="6">
+        <v>45631</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F78" s="5">
+        <v>1</v>
+      </c>
+      <c r="G78" s="5"/>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="3">
+        <v>78</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C79" s="6">
+        <v>45645</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F79" s="5">
+        <v>1</v>
+      </c>
+      <c r="G79" s="5"/>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="3">
+        <v>79</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C80" s="6">
+        <v>45621</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F80" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="G80" s="5"/>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="3">
+        <v>80</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C81" s="6">
+        <v>45624</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F81" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="G81" s="5"/>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="3">
+        <v>81</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C82" s="6">
+        <v>45629</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F82" s="5">
+        <v>1</v>
+      </c>
+      <c r="G82" s="5"/>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="3">
+        <v>82</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C83" s="6">
+        <v>45630</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F83" s="5">
+        <v>1</v>
+      </c>
+      <c r="G83" s="5"/>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="3">
+        <v>83</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C84" s="6">
+        <v>45637</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F84" s="5">
+        <v>1</v>
+      </c>
+      <c r="G84" s="5"/>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="3">
+        <v>84</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C85" s="6">
+        <v>45639</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F85" s="5">
+        <v>3</v>
+      </c>
+      <c r="G85" s="5"/>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="3">
+        <v>85</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C86" s="6">
+        <v>45617</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F86" s="5">
+        <v>1</v>
+      </c>
+      <c r="G86" s="5"/>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="3">
+        <v>86</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C87" s="6">
+        <v>45629</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F87" s="5">
+        <v>1</v>
+      </c>
+      <c r="G87" s="5"/>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="3">
+        <v>87</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C88" s="6">
+        <v>45630</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F88" s="5">
+        <v>1</v>
+      </c>
+      <c r="G88" s="5"/>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="3">
+        <v>88</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C89" s="6">
+        <v>45638</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F89" s="5">
+        <v>1</v>
+      </c>
+      <c r="G89" s="5"/>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="3">
+        <v>89</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C90" s="6">
+        <v>45639</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F90" s="5">
+        <v>3</v>
+      </c>
+      <c r="G90" s="5"/>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="3">
+        <v>90</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C91" s="6">
+        <v>45646</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F91" s="5">
+        <v>2</v>
+      </c>
+      <c r="G91" s="5"/>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" s="3">
+        <v>91</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C92" s="6">
+        <v>45617</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F92" s="5">
+        <v>6</v>
+      </c>
+      <c r="G92" s="5"/>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" s="3">
+        <v>92</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C93" s="6">
+        <v>45617</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F93" s="5">
+        <v>1</v>
+      </c>
+      <c r="G93" s="5"/>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="3">
+        <v>93</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C94" s="6">
+        <v>45621</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F94" s="5">
+        <v>1</v>
+      </c>
+      <c r="G94" s="5"/>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" s="3">
+        <v>94</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C95" s="6">
+        <v>45624</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F95" s="5">
+        <v>2</v>
+      </c>
+      <c r="G95" s="5"/>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="3">
+        <v>95</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C96" s="6">
+        <v>45631</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F96" s="5">
+        <v>1</v>
+      </c>
+      <c r="G96" s="5"/>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="3">
+        <v>96</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C97" s="6">
+        <v>45645</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F97" s="5">
+        <v>1</v>
+      </c>
+      <c r="G97" s="5"/>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" s="3">
+        <v>97</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C98" s="6">
+        <v>45617</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F98" s="5">
+        <v>1</v>
+      </c>
+      <c r="G98" s="5"/>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="3">
+        <v>98</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C99" s="6">
+        <v>45621</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F99" s="5">
+        <v>1</v>
+      </c>
+      <c r="G99" s="5"/>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" s="3">
+        <v>99</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C100" s="6">
+        <v>45624</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F100" s="5">
+        <v>2</v>
+      </c>
+      <c r="G100" s="5"/>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" s="3">
+        <v>100</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C101" s="6">
+        <v>45645</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F101" s="5">
+        <v>1</v>
+      </c>
+      <c r="G101" s="5"/>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" s="3">
+        <v>101</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C102" s="6">
+        <v>45617</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F102" s="5">
+        <v>1</v>
+      </c>
+      <c r="G102" s="5"/>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" s="3">
+        <v>102</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C103" s="6">
+        <v>45622</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F103" s="5">
+        <v>1</v>
+      </c>
+      <c r="G103" s="5"/>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="3">
+        <v>103</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C104" s="6">
+        <v>45646</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F104" s="5">
+        <v>1</v>
+      </c>
+      <c r="G104" s="5"/>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="3">
+        <v>104</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C105" s="6">
+        <v>45624</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F105" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="G105" s="5"/>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="3">
+        <v>105</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C106" s="6">
+        <v>45629</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F106" s="5">
+        <v>1</v>
+      </c>
+      <c r="G106" s="5"/>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="3">
+        <v>106</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C107" s="6">
+        <v>45630</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F107" s="5">
+        <v>2</v>
+      </c>
+      <c r="G107" s="5"/>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" s="3">
+        <v>107</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C108" s="6">
+        <v>45631</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F108" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="G108" s="5"/>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="3">
+        <v>108</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C109" s="6">
+        <v>45637</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F109" s="5">
+        <v>1</v>
+      </c>
+      <c r="G109" s="5"/>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="3">
+        <v>109</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C110" s="6">
+        <v>45639</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F110" s="5">
+        <v>3</v>
+      </c>
+      <c r="G110" s="5"/>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="3">
+        <v>110</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C111" s="6">
+        <v>45642</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F111" s="5">
+        <v>1</v>
+      </c>
+      <c r="G111" s="5"/>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="3">
+        <v>111</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C112" s="6">
+        <v>45617</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F112" s="5">
+        <v>1</v>
+      </c>
+      <c r="G112" s="5"/>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" s="3">
+        <v>112</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C113" s="6">
+        <v>45629</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E113" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F113" s="5">
+        <v>1</v>
+      </c>
+      <c r="G113" s="5"/>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" s="3">
+        <v>113</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C114" s="6">
+        <v>45630</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F114" s="5">
+        <v>1</v>
+      </c>
+      <c r="G114" s="5"/>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" s="3">
+        <v>114</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C115" s="6">
+        <v>45638</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E115" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F115" s="5">
+        <v>1</v>
+      </c>
+      <c r="G115" s="5"/>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" s="3">
+        <v>115</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C116" s="6">
+        <v>45639</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E116" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F116" s="5">
+        <v>3</v>
+      </c>
+      <c r="G116" s="5"/>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" s="3">
+        <v>116</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C117" s="6">
+        <v>45646</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E117" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F117" s="5">
+        <v>2</v>
+      </c>
+      <c r="G117" s="5"/>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" s="3">
+        <v>117</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C118" s="6">
+        <v>45617</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E118" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F118" s="5">
+        <v>1</v>
+      </c>
+      <c r="G118" s="5"/>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" s="3">
+        <v>118</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C119" s="6">
+        <v>45630</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E119" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F119" s="5">
+        <v>1</v>
+      </c>
+      <c r="G119" s="5"/>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" s="3">
+        <v>119</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C120" s="6">
+        <v>45638</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E120" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F120" s="5">
+        <v>1</v>
+      </c>
+      <c r="G120" s="5"/>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" s="3">
+        <v>120</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C121" s="6">
+        <v>45639</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E121" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F121" s="5">
+        <v>3</v>
+      </c>
+      <c r="G121" s="5"/>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" s="3">
+        <v>121</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C122" s="6">
+        <v>45646</v>
+      </c>
+      <c r="D122" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F122" s="5">
+        <v>2</v>
+      </c>
+      <c r="G122" s="5"/>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" s="3">
+        <v>122</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C123" s="6">
+        <v>45621</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E123" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F123" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="G123" s="5"/>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" s="3">
+        <v>123</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C124" s="6">
+        <v>45629</v>
+      </c>
+      <c r="D124" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E124" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F124" s="5">
+        <v>1</v>
+      </c>
+      <c r="G124" s="5"/>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" s="3">
+        <v>124</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C125" s="6">
+        <v>45630</v>
+      </c>
+      <c r="D125" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E125" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F125" s="5">
+        <v>2</v>
+      </c>
+      <c r="G125" s="5"/>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" s="3">
+        <v>125</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C126" s="6">
+        <v>45631</v>
+      </c>
+      <c r="D126" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E126" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F126" s="5">
+        <v>1</v>
+      </c>
+      <c r="G126" s="5"/>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" s="3">
+        <v>126</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C127" s="6">
+        <v>45636</v>
+      </c>
+      <c r="D127" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E127" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F127" s="5">
+        <v>1</v>
+      </c>
+      <c r="G127" s="5"/>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" s="3">
+        <v>127</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C128" s="6">
+        <v>45637</v>
+      </c>
+      <c r="D128" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E128" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F128" s="5">
+        <v>1</v>
+      </c>
+      <c r="G128" s="5"/>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" s="3">
+        <v>128</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C129" s="6">
+        <v>45639</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E129" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F129" s="5">
+        <v>3</v>
+      </c>
+      <c r="G129" s="5"/>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" s="3">
+        <v>129</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C130" s="6">
+        <v>45642</v>
+      </c>
+      <c r="D130" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E130" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F130" s="5">
+        <v>1</v>
+      </c>
+      <c r="G130" s="5"/>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" s="3">
+        <v>130</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C131" s="6">
+        <v>45620</v>
+      </c>
+      <c r="D131" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E131" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F131" s="5">
+        <v>7</v>
+      </c>
+      <c r="G131" s="5"/>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132" s="3">
+        <v>131</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C132" s="6">
+        <v>45627</v>
+      </c>
+      <c r="D132" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E132" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F132" s="5">
+        <v>5</v>
+      </c>
+      <c r="G132" s="5"/>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133" s="3">
+        <v>132</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C133" s="6">
+        <v>45620</v>
+      </c>
+      <c r="D133" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E133" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F133" s="5">
+        <v>1</v>
+      </c>
+      <c r="G133" s="5"/>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" s="3">
+        <v>133</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C134" s="6">
+        <v>45625</v>
+      </c>
+      <c r="D134" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E134" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F134" s="5">
+        <v>3</v>
+      </c>
+      <c r="G134" s="5"/>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" s="3">
+        <v>134</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C135" s="6">
+        <v>45640</v>
+      </c>
+      <c r="D135" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E135" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F135" s="5">
+        <v>1</v>
+      </c>
+      <c r="G135" s="5"/>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" s="3">
+        <v>135</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C136" s="6">
+        <v>45641</v>
+      </c>
+      <c r="D136" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E136" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F136" s="5">
+        <v>1</v>
+      </c>
+      <c r="G136" s="5"/>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" s="3">
+        <v>136</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C137" s="6">
+        <v>45642</v>
+      </c>
+      <c r="D137" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E137" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F137" s="5">
+        <v>3</v>
+      </c>
+      <c r="G137" s="5"/>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" s="3">
+        <v>137</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C138" s="6">
+        <v>45644</v>
+      </c>
+      <c r="D138" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E138" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F138" s="5">
+        <v>2</v>
+      </c>
+      <c r="G138" s="5"/>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" s="3">
+        <v>138</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C139" s="6">
+        <v>45625</v>
+      </c>
+      <c r="D139" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E139" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F139" s="5">
+        <v>3</v>
+      </c>
+      <c r="G139" s="5"/>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" s="3">
+        <v>139</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C140" s="6">
+        <v>45640</v>
+      </c>
+      <c r="D140" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E140" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F140" s="5">
+        <v>1</v>
+      </c>
+      <c r="G140" s="5"/>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" s="3">
+        <v>140</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C141" s="6">
+        <v>45641</v>
+      </c>
+      <c r="D141" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E141" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F141" s="5">
+        <v>1</v>
+      </c>
+      <c r="G141" s="5"/>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142" s="3">
+        <v>141</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C142" s="6">
+        <v>45643</v>
+      </c>
+      <c r="D142" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E142" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F142" s="5">
+        <v>4</v>
+      </c>
+      <c r="G142" s="5"/>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" s="3">
+        <v>142</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C143" s="6">
+        <v>45644</v>
+      </c>
+      <c r="D143" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E143" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F143" s="5">
+        <v>2</v>
+      </c>
+      <c r="G143" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/public/OvertimeData/template-spkl-rev.xlsx
+++ b/public/OvertimeData/template-spkl-rev.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3362E144-9A18-4F96-918F-768B040A5AED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE1FD984-ED01-4040-B020-C8BD68FA554A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-168" yWindow="108" windowWidth="12312" windowHeight="11964" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
-    <sheet name="Worksheet (2)" sheetId="2" r:id="rId2"/>
+    <sheet name="Worksheet" sheetId="4" r:id="rId1"/>
+    <sheet name="Worksheet11" sheetId="1" r:id="rId2"/>
+    <sheet name="Worksheet (3)" sheetId="3" r:id="rId3"/>
+    <sheet name="Worksheet (2)" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="43">
   <si>
     <t>No</t>
   </si>
@@ -162,7 +164,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -260,7 +262,7 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -523,11 +525,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F355405A-3A6D-4AD1-BBD0-2E6592DCDD7B}">
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="134" zoomScaleNormal="134" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="134" zoomScaleNormal="134" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -575,10 +577,10 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="3">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="C2" s="6">
         <v>45617</v>
@@ -590,16 +592,16 @@
         <v>8</v>
       </c>
       <c r="F2" s="5">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="3">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="C3" s="6">
         <v>45618</v>
@@ -611,16 +613,16 @@
         <v>8</v>
       </c>
       <c r="F3" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="3">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="C4" s="6">
         <v>45621</v>
@@ -632,19 +634,19 @@
         <v>8</v>
       </c>
       <c r="F4" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="3">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="C5" s="6">
-        <v>45622</v>
+        <v>45617</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>7</v>
@@ -653,19 +655,19 @@
         <v>8</v>
       </c>
       <c r="F5" s="5">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="3">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="C6" s="6">
-        <v>45625</v>
+        <v>45621</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>7</v>
@@ -674,40 +676,40 @@
         <v>8</v>
       </c>
       <c r="F6" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="3">
-        <v>6</v>
+        <v>132</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C7" s="6">
-        <v>45629</v>
+        <v>45620</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F7" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="3">
-        <v>7</v>
+        <v>133</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C8" s="6">
-        <v>45630</v>
+        <v>45625</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>7</v>
@@ -716,40 +718,40 @@
         <v>8</v>
       </c>
       <c r="F8" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="3">
-        <v>8</v>
+        <v>134</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C9" s="6">
-        <v>45631</v>
+        <v>45640</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F9" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="3">
-        <v>9</v>
+        <v>135</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C10" s="6">
-        <v>45635</v>
+        <v>45641</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>7</v>
@@ -758,19 +760,19 @@
         <v>8</v>
       </c>
       <c r="F10" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="3">
-        <v>10</v>
+        <v>136</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C11" s="6">
-        <v>45637</v>
+        <v>45642</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>7</v>
@@ -779,19 +781,19 @@
         <v>8</v>
       </c>
       <c r="F11" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="3">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C12" s="6">
-        <v>45641</v>
+        <v>45644</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>7</v>
@@ -800,177 +802,9 @@
         <v>8</v>
       </c>
       <c r="F12" s="5">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G12" s="5"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="3">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="6">
-        <v>45642</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="5">
-        <v>2</v>
-      </c>
-      <c r="G13" s="5"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="3">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="6">
-        <v>45643</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="5">
-        <v>2</v>
-      </c>
-      <c r="G14" s="5"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="3">
-        <v>14</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="6">
-        <v>45644</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="5">
-        <v>6</v>
-      </c>
-      <c r="G15" s="5"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="3">
-        <v>15</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="6">
-        <v>45617</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="5">
-        <v>1</v>
-      </c>
-      <c r="G16" s="5"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="3">
-        <v>16</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="6">
-        <v>45618</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="5">
-        <v>1</v>
-      </c>
-      <c r="G17" s="5"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="3">
-        <v>17</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="6">
-        <v>45621</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="5">
-        <v>3</v>
-      </c>
-      <c r="G18" s="5"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="3">
-        <v>18</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="6">
-        <v>45635</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" s="5">
-        <v>1</v>
-      </c>
-      <c r="G19" s="5"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="3">
-        <v>19</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="6">
-        <v>45639</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="5">
-        <v>1</v>
-      </c>
-      <c r="G20" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -979,11 +813,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4860D797-BBDE-41C4-8537-E84CC484540B}">
-  <dimension ref="A1:G143"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="134" zoomScaleNormal="134" workbookViewId="0">
-      <selection activeCell="E153" sqref="E153"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1033,6 +867,582 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
+      <c r="B2" s="4">
+        <v>10236</v>
+      </c>
+      <c r="C2" s="6">
+        <v>45624</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>10236</v>
+      </c>
+      <c r="C3" s="6">
+        <v>45644</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="G3" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44CA8D40-3EDB-439F-95DC-F2A4498578A7}">
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="134" zoomScaleNormal="134" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="5.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" customWidth="1"/>
+    <col min="5" max="5" width="23.77734375" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="10" max="10" width="13.77734375" customWidth="1"/>
+    <col min="12" max="12" width="24.109375" customWidth="1"/>
+    <col min="17" max="17" width="9.6640625" customWidth="1"/>
+    <col min="18" max="18" width="13.33203125" customWidth="1"/>
+    <col min="19" max="19" width="10.44140625" customWidth="1"/>
+    <col min="20" max="20" width="11.44140625" customWidth="1"/>
+    <col min="21" max="21" width="15.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="22.5" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="6">
+        <v>45617</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="5">
+        <v>2</v>
+      </c>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="6">
+        <v>45618</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="5">
+        <v>2</v>
+      </c>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="6">
+        <v>45621</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="5">
+        <v>2</v>
+      </c>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="6">
+        <v>45622</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="5">
+        <v>2</v>
+      </c>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="6">
+        <v>45625</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="5">
+        <v>2</v>
+      </c>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="6">
+        <v>45629</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="5">
+        <v>2</v>
+      </c>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="6">
+        <v>45630</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="5">
+        <v>2</v>
+      </c>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="6">
+        <v>45631</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="5">
+        <v>2</v>
+      </c>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="6">
+        <v>45635</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="5">
+        <v>2</v>
+      </c>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="6">
+        <v>45637</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="5">
+        <v>2</v>
+      </c>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="6">
+        <v>45641</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="5">
+        <v>9</v>
+      </c>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="6">
+        <v>45642</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="5">
+        <v>2</v>
+      </c>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="6">
+        <v>45643</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="5">
+        <v>2</v>
+      </c>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="6">
+        <v>45644</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="5">
+        <v>6</v>
+      </c>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="6">
+        <v>45617</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="5">
+        <v>1</v>
+      </c>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="6">
+        <v>45618</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="5">
+        <v>1</v>
+      </c>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="6">
+        <v>45621</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="5">
+        <v>3</v>
+      </c>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="6">
+        <v>45635</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="5">
+        <v>1</v>
+      </c>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="6">
+        <v>45639</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="5">
+        <v>1</v>
+      </c>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="6">
+        <v>45617</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="G21" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4860D797-BBDE-41C4-8537-E84CC484540B}">
+  <dimension ref="A1:G143"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A133" zoomScale="134" zoomScaleNormal="134" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="5.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" customWidth="1"/>
+    <col min="5" max="5" width="23.77734375" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="10" max="10" width="13.77734375" customWidth="1"/>
+    <col min="12" max="12" width="24.109375" customWidth="1"/>
+    <col min="17" max="17" width="9.6640625" customWidth="1"/>
+    <col min="18" max="18" width="13.33203125" customWidth="1"/>
+    <col min="19" max="19" width="10.44140625" customWidth="1"/>
+    <col min="20" max="20" width="11.44140625" customWidth="1"/>
+    <col min="21" max="21" width="15.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="22.5" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
       <c r="B2" s="4" t="s">
         <v>9</v>
       </c>
